--- a/results/predictions.xlsx
+++ b/results/predictions.xlsx
@@ -551,37 +551,37 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1393.281982421875</v>
+        <v>1404.810546875</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.04307449609041214</v>
+        <v>0.04992308467626572</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>74.34217834472656</v>
+        <v>72.42414093017578</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>91.40175628662109</v>
+        <v>98.655029296875</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1.329819679260254</v>
+        <v>1.266634106636047</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>275.7705078125</v>
+        <v>277.3520812988281</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>56.0534782409668</v>
+        <v>56.00094985961914</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>14.34819507598877</v>
+        <v>14.73408603668213</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>366.3808898925781</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>1.618840098381042</v>
+        <v>358.5520935058594</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>1.562665343284607</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>77.67177581787109</v>
+        <v>82.40859985351562</v>
       </c>
     </row>
     <row r="4">
@@ -631,37 +631,37 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>1498.939453125</v>
+        <v>1517.439453125</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.05834049731492996</v>
+        <v>0.05090620741248131</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>73.23949432373047</v>
+        <v>72.07485961914062</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>91.03526306152344</v>
+        <v>94.83154296875</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.086708068847656</v>
+        <v>1.112897396087646</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>297.2051086425781</v>
+        <v>296.2792358398438</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>59.81706237792969</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>14.38254070281982</v>
+        <v>59.81084823608398</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>14.68140316009521</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>380.0444030761719</v>
+        <v>373.9782409667969</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.597330451011658</v>
+        <v>1.626388192176819</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>82.09030914306641</v>
+        <v>82.69736480712891</v>
       </c>
     </row>
     <row r="6">
@@ -711,37 +711,37 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>1532.76611328125</v>
+        <v>1539.90283203125</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.05989399552345276</v>
+        <v>0.05408654361963272</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>73.77243041992188</v>
+        <v>72.74410247802734</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>92.19120025634766</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>1.260538101196289</v>
+        <v>95.31835174560547</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1.279334187507629</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>304.4781799316406</v>
+        <v>300.5798034667969</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>60.27901458740234</v>
+        <v>60.37855529785156</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>15.03101444244385</v>
+        <v>15.29457569122314</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>395.8225402832031</v>
-      </c>
-      <c r="K7" s="3" t="n">
-        <v>1.556416630744934</v>
+        <v>389.3860473632812</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>1.622085571289062</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>82.59912109375</v>
+        <v>82.46072387695312</v>
       </c>
     </row>
     <row r="8">
@@ -791,37 +791,37 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>1525.661865234375</v>
+        <v>1532.767211914062</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.05903488397598267</v>
+        <v>0.05127127841114998</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>73.83148193359375</v>
+        <v>72.84040069580078</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>92.49275207519531</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>1.161039471626282</v>
+        <v>95.86241912841797</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>1.188387274742126</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>301.6529846191406</v>
+        <v>298.0171508789062</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>59.75830078125</v>
+        <v>59.90997695922852</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>14.65882682800293</v>
+        <v>14.98731994628906</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>393.4688110351562</v>
+        <v>388.2945251464844</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.57301127910614</v>
+        <v>1.623548984527588</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>82.11066436767578</v>
+        <v>82.31357574462891</v>
       </c>
     </row>
     <row r="10">
@@ -871,37 +871,37 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>1511.130859375</v>
+        <v>1519.446533203125</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.05859219282865524</v>
+        <v>0.05472926422953606</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>73.53199005126953</v>
+        <v>72.43732452392578</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>92.66712951660156</v>
+        <v>95.86536407470703</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.075709462165833</v>
+        <v>1.104462504386902</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>299.7639770507812</v>
+        <v>296.3111267089844</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>58.7447395324707</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>14.2941837310791</v>
+        <v>58.89298629760742</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>14.63730335235596</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>389.3471069335938</v>
+        <v>383.0693969726562</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.567424654960632</v>
+        <v>1.601454377174377</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>81.02001190185547</v>
+        <v>80.899169921875</v>
       </c>
     </row>
     <row r="12">
@@ -951,37 +951,37 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1527.449096679688</v>
+        <v>1534.5888671875</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.05960706621408463</v>
+        <v>0.05255595967173576</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>74.12130737304688</v>
+        <v>73.08052062988281</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>92.69046783447266</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>1.179949164390564</v>
+        <v>96.04146575927734</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>1.204014658927917</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>302.3990173339844</v>
+        <v>298.7508239746094</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>59.83163070678711</v>
+        <v>59.97525405883789</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>14.74112796783447</v>
+        <v>15.04694843292236</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>393.7620849609375</v>
+        <v>388.3690490722656</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.56823468208313</v>
+        <v>1.622298836708069</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>82.17923736572266</v>
+        <v>82.29988098144531</v>
       </c>
     </row>
     <row r="14">
@@ -1031,37 +1031,37 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>1544.749267578125</v>
+        <v>1552.923706054688</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.05972561240196228</v>
+        <v>0.05212899670004845</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>74.35462188720703</v>
+        <v>73.29492950439453</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>93.2562255859375</v>
+        <v>96.37158966064453</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.241134643554688</v>
+        <v>1.262880682945251</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>306.6424865722656</v>
+        <v>301.9981079101562</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>60.10661315917969</v>
+        <v>60.18916702270508</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>14.98990535736084</v>
+        <v>15.30895137786865</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>398.7737121582031</v>
-      </c>
-      <c r="K15" s="3" t="n">
-        <v>1.564258813858032</v>
+        <v>391.7599182128906</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>1.622445940971375</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>82.97852325439453</v>
+        <v>82.572998046875</v>
       </c>
     </row>
     <row r="16">
@@ -1111,37 +1111,37 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>1496.955932617188</v>
+        <v>1508.091796875</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.05850247293710709</v>
+        <v>0.05385128036141396</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>73.96634674072266</v>
+        <v>72.67691802978516</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>92.27732086181641</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>1.059611558914185</v>
+        <v>95.79610443115234</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>1.094842433929443</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>297.4034729003906</v>
+        <v>295.3707885742188</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>59.20830917358398</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>14.26431560516357</v>
+        <v>59.1152458190918</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>14.58527755737305</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>383.1177368164062</v>
+        <v>376.97314453125</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.574975490570068</v>
+        <v>1.610335946083069</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>80.86469268798828</v>
+        <v>80.88287353515625</v>
       </c>
     </row>
     <row r="18">
@@ -1191,37 +1191,37 @@
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>1510.674682617188</v>
+        <v>1529.305908203125</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.05937621742486954</v>
+        <v>0.05084015056490898</v>
       </c>
       <c r="D19" s="1" t="n">
-        <v>74.46893310546875</v>
+        <v>73.08428192138672</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>92.22000122070312</v>
+        <v>95.91747283935547</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.140601873397827</v>
+        <v>1.167641758918762</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>300.7195434570312</v>
+        <v>298.6504821777344</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>60.12071228027344</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>14.54795360565186</v>
+        <v>60.13968276977539</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>14.88556957244873</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>384.1799011230469</v>
+        <v>377.4946594238281</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.587507367134094</v>
+        <v>1.626852869987488</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>82.39052581787109</v>
+        <v>82.66542053222656</v>
       </c>
     </row>
     <row r="20">
@@ -1271,37 +1271,37 @@
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>1502.664306640625</v>
+        <v>1525.712158203125</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.05906146019697189</v>
+        <v>0.05238183960318565</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>74.18460083007812</v>
+        <v>72.75389862060547</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>92.69544982910156</v>
+        <v>96.23957061767578</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.04174530506134</v>
+        <v>1.075733423233032</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>300.0501098632812</v>
+        <v>298.5576782226562</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>59.04354095458984</v>
+        <v>58.8794059753418</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>14.11549854278564</v>
+        <v>14.53809833526611</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>382.2327270507812</v>
+        <v>373.7390441894531</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.592299818992615</v>
+        <v>1.606709122657776</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>81.68576812744141</v>
+        <v>82.06228637695312</v>
       </c>
     </row>
   </sheetData>
